--- a/data/excel/Loteca.xlsx
+++ b/data/excel/Loteca.xlsx
@@ -83478,6 +83478,154 @@
         <x:v/>
       </x:c>
     </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>1072</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna 1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna do meio</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna do meio</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna 1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna 1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna do meio</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna 1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna 2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna 1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna do meio</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna 1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna 2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna do meio</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna 1</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.389.596,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.600.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>1073</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna do meio</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna do meio</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna do meio</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna 1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna 1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna 2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna 2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna 1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna 1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna do meio</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna 1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna do meio</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna 2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Coluna 1</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$3.564,75</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.798.322,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$3.200.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </x:worksheet>
